--- a/실무_엑셀_예제_파일/Chapter03/03-004.xlsx
+++ b/실무_엑셀_예제_파일/Chapter03/03-004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39254C8-C2B1-4EDF-AF36-D3579DED2E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D3B93-2EC3-4C26-A4A1-84C8B657D956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{44F323CD-6809-4BF8-84B5-6EF305D8DDFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{44F323CD-6809-4BF8-84B5-6EF305D8DDFA}"/>
   </bookViews>
   <sheets>
     <sheet name="체육실기평가" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,9 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,9 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,7 +488,62 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -806,44 +855,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5189506A-4912-437A-96D7-99B0A049095F}">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="4" max="4" width="5.58203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="2:6" ht="5.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" ht="5.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -857,7 +908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -871,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -885,7 +936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -893,7 +944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -909,7 +960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -917,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -925,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -933,7 +984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -941,7 +992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -955,6 +1006,14 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C6:C16">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -963,27 +1022,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE221CA-7A0D-43E2-8953-F70DBE5219A9}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="5.08203125" customWidth="1"/>
+    <col min="8" max="8" width="10.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
         <v>34</v>
@@ -1004,7 +1065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1068,7 +1129,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1086,7 +1147,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1165,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1183,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1201,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1158,7 +1219,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1176,7 +1237,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1194,7 +1255,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1273,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1235,6 +1296,9 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F5:F16">
+    <cfRule type="top10" dxfId="2" priority="1" percent="1" bottom="1" rank="30"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1245,80 +1309,80 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="66.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1332,27 +1396,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F6093C-5D3D-433F-A36F-FB8ACC02CBC7}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="7" max="7" width="4.25" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
         <v>34</v>
@@ -1373,7 +1439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1504,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1522,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1474,7 +1540,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +1558,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1510,7 +1576,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1527,7 +1593,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1545,7 +1611,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1563,7 +1629,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1647,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1604,6 +1670,11 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:F16">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F5&lt;240</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1612,34 +1683,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868832A-C11F-42C7-AA66-BAC7A0CA9693}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>64</v>
       </c>
@@ -1650,7 +1723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>66</v>
       </c>
@@ -1661,7 +1734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>68</v>
       </c>
@@ -1672,7 +1745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="9" t="s">
         <v>69</v>
       </c>
@@ -1683,7 +1756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1694,7 +1767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="9" t="s">
         <v>71</v>
       </c>
@@ -1705,7 +1778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="9" t="s">
         <v>72</v>
       </c>
@@ -1716,7 +1789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
@@ -1727,7 +1800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="9" t="s">
         <v>74</v>
       </c>
@@ -1738,7 +1811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="9" t="s">
         <v>75</v>
       </c>
@@ -1754,6 +1827,11 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:D14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($C5="O", $D5="O")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>